--- a/Mycs/target/classes/entire.xlsx
+++ b/Mycs/target/classes/entire.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\Mycs\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurup\git\repository7\Mycs\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CED3B6-7EE1-426A-82CF-D45FF4FA3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35197C2E-9845-4337-A8FC-DF242B26A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE45F35-B755-4FA9-9EBC-D94B56BBCB5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5BE45F35-B755-4FA9-9EBC-D94B56BBCB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="entire" sheetId="1" r:id="rId1"/>
-    <sheet name="verify" sheetId="2" r:id="rId2"/>
-    <sheet name="product" sheetId="3" r:id="rId3"/>
+    <sheet name="ploduct" sheetId="4" r:id="rId2"/>
+    <sheet name="verify" sheetId="2" r:id="rId3"/>
+    <sheet name="product" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>increase</t>
   </si>
@@ -141,6 +142,24 @@
   </si>
   <si>
     <t>900</t>
+  </si>
+  <si>
+    <t>new ploduct</t>
+  </si>
+  <si>
+    <t>duplex</t>
+  </si>
+  <si>
+    <t>plastic builders</t>
+  </si>
+  <si>
+    <t>dolphin</t>
+  </si>
+  <si>
+    <t>pengiun</t>
+  </si>
+  <si>
+    <t>2sheep</t>
   </si>
 </sst>
 </file>
@@ -221,6 +240,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2385060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="emb42077582B">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2E611B-D98C-91F3-A663-CDC74F4EDE3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="0"/>
+          <a:ext cx="2385060" cy="2385060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9C6BFA-4452-4455-A82D-7004D0130F65}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -618,6 +704,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E2DAC3-950D-4AEE-B255-93477566419B}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB23E87-1EB2-4476-A739-619DC71A8476}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -677,7 +812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC462DA-5AEC-4233-9166-71645F9DA636}">
   <dimension ref="A1:A7"/>
   <sheetViews>
